--- a/src/learning/label_spreading/dummy_lda_output.xlsx
+++ b/src/learning/label_spreading/dummy_lda_output.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>post1</t>
   </si>
@@ -159,14 +159,58 @@
   </si>
   <si>
     <t>0.171302</t>
+  </si>
+  <si>
+    <t>post5</t>
+  </si>
+  <si>
+    <t>post6</t>
+  </si>
+  <si>
+    <t>post7</t>
+  </si>
+  <si>
+    <t>post8</t>
+  </si>
+  <si>
+    <t>post9</t>
+  </si>
+  <si>
+    <t>post10</t>
+  </si>
+  <si>
+    <t>postID</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>post11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -194,8 +238,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,166 +518,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E12" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
